--- a/CashFlow/TXT_cashflow.xlsx
+++ b/CashFlow/TXT_cashflow.xlsx
@@ -74,9 +74,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="28.6"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="15.400000000000002"/>
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>15732000000.0</v>
+        <v>624000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>16412000000.0</v>
+        <v>434000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>13259000000.0</v>
+        <v>102000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>8860000000.0</v>
+        <v>-31000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>4308000000.0</v>
+        <v>-445000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-292000000.0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-305000000.0</v>
+        <v>3912000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-613000000.0</v>
+        <v>4201000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>-364000000.0</v>
+        <v>3328000000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>-410000000.0</v>
+        <v>2294000000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>-109000000.0</v>
+        <v>1262000000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>-348000000.0</v>
